--- a/Excel/TI/Mon_TI_2024_04_12.xlsx
+++ b/Excel/TI/Mon_TI_2024_04_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,88 +584,102 @@
           <t>M-3_score</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>M+2_H_A</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>M+2_team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F2" t="n">
-        <v>50.4</v>
+        <v>40.2</v>
       </c>
       <c r="G2" t="n">
-        <v>60.3</v>
+        <v>42.1</v>
       </c>
       <c r="H2" t="n">
-        <v>59.9</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>41</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>55</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R2" t="n">
+        <v>19</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+        <v>0.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6</v>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -674,17 +688,15 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -694,18 +706,28 @@
       <c r="AD2" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>LAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -714,100 +736,122 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F3" t="n">
-        <v>57.4</v>
+        <v>45.8</v>
       </c>
       <c r="G3" t="n">
-        <v>54.5</v>
+        <v>41.7</v>
       </c>
       <c r="H3" t="n">
-        <v>52.6</v>
+        <v>32.7</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="P3" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="R3" t="n">
+        <v>41</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
         <v>45</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>67</v>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>52</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD3" t="n">
-        <v>65</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -816,64 +860,74 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>47.2</v>
+        <v>31.2</v>
       </c>
       <c r="G4" t="n">
-        <v>45.9</v>
+        <v>39.3</v>
       </c>
       <c r="H4" t="n">
-        <v>42.3</v>
+        <v>40.3</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>43</v>
-      </c>
-      <c r="P4" t="n">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+        <v>-0.7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9</v>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -882,112 +936,114 @@
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD4" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>44.2</v>
       </c>
       <c r="G5" t="n">
-        <v>42.2</v>
+        <v>39.1</v>
       </c>
       <c r="H5" t="n">
-        <v>37.6</v>
+        <v>36.9</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O5" t="n">
+        <v>31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="n">
         <v>42</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>36</v>
       </c>
-      <c r="Q5" t="n">
-        <v>40</v>
-      </c>
-      <c r="R5" t="n">
-        <v>53</v>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>6</v>
-      </c>
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -996,7 +1052,7 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1004,94 +1060,94 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>DET</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>43.8</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>41.6</v>
+        <v>36.9</v>
       </c>
       <c r="H6" t="n">
-        <v>40.9</v>
+        <v>36.5</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="P6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" t="n">
         <v>35</v>
       </c>
-      <c r="Q6" t="n">
-        <v>50</v>
-      </c>
-      <c r="R6" t="n">
-        <v>55</v>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9</v>
-      </c>
+        <v>-0.2</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1099,7 +1155,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1108,15 +1164,17 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v>70</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1126,18 +1184,28 @@
       <c r="AD6" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1148,53 +1216,51 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>43.2</v>
+        <v>33.6</v>
       </c>
       <c r="G7" t="n">
-        <v>40.7</v>
+        <v>34.9</v>
       </c>
       <c r="H7" t="n">
-        <v>36.5</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
         <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>36</v>
       </c>
       <c r="O7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P7" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R7" t="n">
         <v>30</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1205,7 +1271,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1214,34 +1280,48 @@
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD7" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1250,89 +1330,85 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>40.2</v>
+        <v>37.6</v>
       </c>
       <c r="G8" t="n">
-        <v>40.6</v>
+        <v>34.3</v>
       </c>
       <c r="H8" t="n">
-        <v>36.9</v>
+        <v>35.5</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
       <c r="M8" t="n">
-        <v>8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="P8" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
-      </c>
-      <c r="R8" t="n">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>13</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1342,63 +1418,73 @@
       <c r="AD8" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>BKN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>32.8</v>
+        <v>22.4</v>
       </c>
       <c r="G9" t="n">
-        <v>39.5</v>
+        <v>33.3</v>
       </c>
       <c r="H9" t="n">
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>41</v>
-      </c>
-      <c r="O9" t="n">
-        <v>35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1412,35 +1498,31 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>7</v>
-      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1460,18 +1542,28 @@
       <c r="AD9" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1482,43 +1574,43 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>35.2</v>
+        <v>30.2</v>
       </c>
       <c r="G10" t="n">
-        <v>34.3</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>32.9</v>
+        <v>32.1</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P10" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1526,7 +1618,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1537,7 +1629,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1546,17 +1638,15 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>60</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1566,69 +1656,75 @@
       <c r="AD10" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>37.4</v>
+        <v>33.2</v>
       </c>
       <c r="G11" t="n">
-        <v>34.2</v>
+        <v>31.9</v>
       </c>
       <c r="H11" t="n">
-        <v>35.4</v>
+        <v>25.9</v>
       </c>
       <c r="I11" t="n">
         <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
       <c r="N11" t="n">
-        <v>60</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R11" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1636,7 +1732,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -1647,24 +1743,28 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z11" t="n">
-        <v>47</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1674,35 +1774,45 @@
       <c r="AD11" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BOS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>36.2</v>
       </c>
       <c r="G12" t="n">
-        <v>34.1</v>
+        <v>31.7</v>
       </c>
       <c r="H12" t="n">
-        <v>36.2</v>
+        <v>33.3</v>
       </c>
       <c r="I12" t="n">
         <v>14</v>
@@ -1711,66 +1821,64 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" t="n">
         <v>27</v>
       </c>
       <c r="P12" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R12" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1780,69 +1888,75 @@
       <c r="AD12" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>18.6</v>
+        <v>35.6</v>
       </c>
       <c r="G13" t="n">
-        <v>33.7</v>
+        <v>31.7</v>
       </c>
       <c r="H13" t="n">
-        <v>37.9</v>
+        <v>36.2</v>
       </c>
       <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>34</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="O13" t="n">
+        <v>48</v>
       </c>
       <c r="P13" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="R13" t="n">
+        <v>28</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1850,7 +1964,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1861,7 +1975,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1870,17 +1984,15 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1890,177 +2002,201 @@
       <c r="AD13" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>33.3</v>
+        <v>31.3</v>
       </c>
       <c r="H14" t="n">
-        <v>33.4</v>
+        <v>37.5</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
+        <v>48</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>34</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
         <v>62</v>
       </c>
-      <c r="O14" t="n">
-        <v>39</v>
-      </c>
-      <c r="P14" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>24</v>
-      </c>
-      <c r="R14" t="n">
-        <v>24</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U14" t="n">
-        <v>-14.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>CHA</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z14" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F15" t="n">
-        <v>37.8</v>
+        <v>36.2</v>
       </c>
       <c r="G15" t="n">
-        <v>33.1</v>
+        <v>30.6</v>
       </c>
       <c r="H15" t="n">
-        <v>32.7</v>
+        <v>33.8</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O15" t="n">
-        <v>41</v>
-      </c>
-      <c r="P15" t="n">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q15" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R15" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2068,10 +2204,14 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15</v>
+      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2079,24 +2219,24 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -2106,103 +2246,119 @@
       <c r="AD15" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>29.2</v>
       </c>
       <c r="G16" t="n">
-        <v>32.5</v>
+        <v>30.6</v>
       </c>
       <c r="H16" t="n">
-        <v>36.1</v>
+        <v>30.4</v>
       </c>
       <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>46</v>
+      </c>
+      <c r="O16" t="n">
+        <v>42</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>32</v>
+      </c>
+      <c r="R16" t="n">
+        <v>19</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V16" t="n">
         <v>12</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>28</v>
-      </c>
-      <c r="O16" t="n">
-        <v>27</v>
-      </c>
-      <c r="P16" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>23</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -2212,73 +2368,87 @@
       <c r="AD16" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>34</v>
+        <v>36.4</v>
       </c>
       <c r="G17" t="n">
-        <v>32.1</v>
+        <v>30.4</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5</v>
+        <v>28</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8</v>
-      </c>
       <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O17" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="P17" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="n">
-        <v>9</v>
-      </c>
-      <c r="R17" t="n">
         <v>36</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2289,7 +2459,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2298,89 +2468,99 @@
         </is>
       </c>
       <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
         <v>23</v>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD17" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>31.6</v>
+        <v>29.3</v>
       </c>
       <c r="H18" t="n">
-        <v>27.8</v>
+        <v>30.9</v>
       </c>
       <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N18" t="n">
+        <v>40</v>
       </c>
       <c r="O18" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q18" t="n">
+        <v>32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>14</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2388,10 +2568,14 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+        <v>-0.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>8</v>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>@</t>
@@ -2399,7 +2583,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2408,15 +2592,17 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -2426,84 +2612,86 @@
       <c r="AD18" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>28.4</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>31.4</v>
+        <v>28.7</v>
       </c>
       <c r="H19" t="n">
-        <v>30.3</v>
+        <v>26.2</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
         <v>3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
+        <v>21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="n">
         <v>19</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>31</v>
       </c>
-      <c r="P19" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>36</v>
-      </c>
-      <c r="R19" t="n">
-        <v>30</v>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V19" t="n">
-        <v>12</v>
-      </c>
+        <v>-1.6</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
           <t>@</t>
@@ -2511,16 +2699,16 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2528,7 +2716,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -2538,18 +2726,28 @@
       <c r="AD19" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>NOP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2560,43 +2758,45 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>24.8</v>
+        <v>30.4</v>
       </c>
       <c r="G20" t="n">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
       <c r="H20" t="n">
-        <v>33.2</v>
+        <v>30.1</v>
       </c>
       <c r="I20" t="n">
         <v>13</v>
       </c>
       <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="P20" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
-      </c>
-      <c r="R20" t="n">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2604,7 +2804,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0.8</v>
+        <v>-3.1</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -2615,7 +2815,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2624,7 +2824,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2632,7 +2832,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -2642,18 +2842,28 @@
       <c r="AD20" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2664,47 +2874,43 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>34.6</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="H21" t="n">
-        <v>29.2</v>
+        <v>20.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O21" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="P21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>31</v>
+      </c>
+      <c r="R21" t="n">
+        <v>26</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2712,7 +2918,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-1.8</v>
+        <v>2.3</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -2723,26 +2929,24 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -2752,18 +2956,28 @@
       <c r="AD21" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>NOP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2772,45 +2986,53 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F22" t="n">
-        <v>28.4</v>
+        <v>27.6</v>
       </c>
       <c r="G22" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="H22" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O22" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="P22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>33</v>
-      </c>
-      <c r="R22" t="n">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2818,10 +3040,14 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>13</v>
+      </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2829,18 +3055,16 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2860,67 +3084,81 @@
       <c r="AD22" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F23" t="n">
-        <v>31.4</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
-        <v>30.2</v>
+        <v>19.1</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N23" t="n">
+        <v>31</v>
       </c>
       <c r="O23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="P23" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R23" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2928,10 +3166,14 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-3</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9</v>
+      </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>@</t>
@@ -2939,7 +3181,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2948,82 +3190,88 @@
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>25.4</v>
+        <v>33.4</v>
       </c>
       <c r="G24" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="H24" t="n">
-        <v>24.1</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N24" t="n">
+        <v>38</v>
       </c>
       <c r="O24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P24" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q24" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R24" t="n">
         <v>17</v>
@@ -3034,7 +3282,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3045,7 +3293,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3054,17 +3302,15 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -3074,18 +3320,28 @@
       <c r="AD24" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3094,51 +3350,47 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>28.2</v>
+        <v>26.9</v>
       </c>
       <c r="H25" t="n">
-        <v>30.7</v>
+        <v>27.9</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>14</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="n">
-        <v>27</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="R25" t="n">
+        <v>17</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -3148,12 +3400,8 @@
       <c r="T25" t="n">
         <v>0.2</v>
       </c>
-      <c r="U25" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>8</v>
-      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
           <t>@</t>
@@ -3161,12 +3409,12 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z25" t="n">
@@ -3174,165 +3422,173 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>25</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>PHI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Probable</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>28.2</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="H26" t="n">
-        <v>18.8</v>
+        <v>24.6</v>
       </c>
       <c r="I26" t="n">
         <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="O26" t="n">
+        <v>13</v>
+      </c>
+      <c r="P26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>11</v>
+      </c>
+      <c r="R26" t="n">
+        <v>28</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
         <v>23</v>
       </c>
-      <c r="P26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>41</v>
-      </c>
-      <c r="R26" t="n">
-        <v>49</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U26" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>9</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB26" t="n">
-        <v>38</v>
-      </c>
       <c r="AC26" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>23.4</v>
       </c>
       <c r="G27" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2</v>
+        <v>29.7</v>
       </c>
       <c r="I27" t="n">
         <v>15</v>
@@ -3341,28 +3597,28 @@
         <v>5</v>
       </c>
       <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
         <v>5</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>2</v>
       </c>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
       <c r="N27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="P27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q27" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="R27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -3370,7 +3626,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>-2.2</v>
+        <v>0.6</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -3381,7 +3637,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3390,15 +3646,17 @@
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB27" t="n">
-        <v>37</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3408,90 +3666,94 @@
       <c r="AD27" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Austin Reaves</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>18.4</v>
       </c>
       <c r="G28" t="n">
-        <v>27.3</v>
+        <v>25.6</v>
       </c>
       <c r="H28" t="n">
-        <v>27.8</v>
+        <v>25.4</v>
       </c>
       <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>38</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8</v>
+      </c>
+      <c r="P28" t="n">
         <v>11</v>
       </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>28</v>
-      </c>
-      <c r="P28" t="n">
-        <v>41</v>
-      </c>
       <c r="Q28" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R28" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3500,127 +3762,137 @@
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>NOP</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>31.6</v>
+        <v>29.2</v>
       </c>
       <c r="G29" t="n">
-        <v>27.2</v>
+        <v>25.5</v>
       </c>
       <c r="H29" t="n">
-        <v>33.6</v>
+        <v>24</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P29" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>27</v>
-      </c>
-      <c r="R29" t="n">
+        <v>33</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
         <v>23</v>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V29" t="n">
-        <v>14</v>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z29" t="n">
-        <v>17</v>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB29" t="n">
-        <v>63</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -3630,18 +3902,28 @@
       <c r="AD29" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>ORL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -3652,71 +3934,77 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>22.4</v>
+        <v>31.6</v>
       </c>
       <c r="G30" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="H30" t="n">
-        <v>24.6</v>
+        <v>27.8</v>
       </c>
       <c r="I30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
         <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>7</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
-      </c>
-      <c r="O30" t="n">
+        <v>31</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>28</v>
       </c>
-      <c r="P30" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>26</v>
-      </c>
-      <c r="R30" t="n">
-        <v>23</v>
-      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>-1.4</v>
+        <v>0.9</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3724,92 +4012,112 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD30" t="n">
-        <v>37</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Terry Rozier</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>34.6</v>
+        <v>28.4</v>
       </c>
       <c r="G31" t="n">
-        <v>26.4</v>
+        <v>24.3</v>
       </c>
       <c r="H31" t="n">
-        <v>20.1</v>
+        <v>27.7</v>
       </c>
       <c r="I31" t="n">
         <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>31</v>
-      </c>
-      <c r="O31" t="n">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R31" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.6</v>
+        <v>-1.7</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3818,7 +4126,7 @@
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -3826,7 +4134,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -3836,41 +4144,55 @@
       <c r="AD31" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>19.8</v>
+        <v>29</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="H32" t="n">
-        <v>26.1</v>
+        <v>28.6</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -3879,22 +4201,26 @@
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>17</v>
-      </c>
-      <c r="O32" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R32" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3902,7 +4228,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -3913,7 +4239,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3922,15 +4248,17 @@
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB32" t="n">
-        <v>16</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -3940,21 +4268,35 @@
       <c r="AD32" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>G</t>
@@ -3962,62 +4304,66 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>32.4</v>
+        <v>23.8</v>
       </c>
       <c r="G33" t="n">
-        <v>25.6</v>
+        <v>24</v>
       </c>
       <c r="H33" t="n">
-        <v>21.3</v>
+        <v>30.2</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>18</v>
-      </c>
-      <c r="O33" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="R33" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-2.1</v>
+        <v>0.3</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4026,17 +4372,15 @@
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>25</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -4046,35 +4390,45 @@
       <c r="AD33" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>17.4</v>
+        <v>31</v>
       </c>
       <c r="G34" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="H34" t="n">
-        <v>29.9</v>
+        <v>21.8</v>
       </c>
       <c r="I34" t="n">
         <v>14</v>
@@ -4092,57 +4446,55 @@
         <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O34" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P34" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>0.7</v>
+        <v>-2.2</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -4152,18 +4504,28 @@
       <c r="AD34" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4174,71 +4536,71 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>19.4</v>
+        <v>15.6</v>
       </c>
       <c r="G35" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="H35" t="n">
-        <v>30.1</v>
+        <v>21.2</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O35" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R35" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>0.1</v>
+        <v>-1.7</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -4258,18 +4620,28 @@
       <c r="AD35" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4278,64 +4650,76 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F36" t="n">
-        <v>24.6</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>23.4</v>
+        <v>22.3</v>
       </c>
       <c r="H36" t="n">
-        <v>28.6</v>
+        <v>18.5</v>
       </c>
       <c r="I36" t="n">
         <v>13</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>33</v>
-      </c>
-      <c r="P36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R36" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+        <v>-1.1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>13</v>
+      </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4344,17 +4728,15 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>7</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -4364,84 +4746,96 @@
       <c r="AD36" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
-        <v>21.3</v>
+        <v>17.1</v>
       </c>
       <c r="H37" t="n">
-        <v>21.1</v>
+        <v>19.2</v>
       </c>
       <c r="I37" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>40</v>
+      </c>
+      <c r="P37" t="n">
         <v>18</v>
       </c>
-      <c r="O37" t="n">
-        <v>27</v>
-      </c>
-      <c r="P37" t="n">
-        <v>25</v>
-      </c>
       <c r="Q37" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R37" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>-1.9</v>
+        <v>0.4</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4450,62 +4844,70 @@
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>17.4</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>13.7</v>
+        <v>10.4</v>
       </c>
       <c r="H38" t="n">
-        <v>18.7</v>
+        <v>16.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
+        <v>11</v>
+      </c>
+      <c r="K38" t="n">
         <v>2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4516,17 +4918,23 @@
       <c r="N38" t="n">
         <v>24</v>
       </c>
-      <c r="O38" t="n">
-        <v>25</v>
-      </c>
-      <c r="P38" t="n">
-        <v>23</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q38" t="n">
-        <v>9</v>
-      </c>
-      <c r="R38" t="n">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -4534,7 +4942,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -4545,7 +4953,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4554,15 +4962,15 @@
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -4572,18 +4980,28 @@
       <c r="AD38" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4593,18 +5011,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F39" t="n">
-        <v>25.4</v>
+        <v>44</v>
       </c>
       <c r="G39" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="H39" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4652,10 +5074,14 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+        <v>-3.2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V39" t="n">
+        <v>11</v>
+      </c>
       <c r="W39" t="inlineStr">
         <is>
           <t>@</t>
@@ -4663,26 +5089,24 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>58</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -4692,18 +5116,28 @@
       <c r="AD39" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4713,37 +5147,33 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>44</v>
+        <v>34.6</v>
       </c>
       <c r="G40" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="H40" t="n">
         <v>37.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -4772,26 +5202,22 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V40" t="n">
-        <v>11</v>
-      </c>
+        <v>-2.5</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4800,15 +5226,15 @@
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -4818,18 +5244,28 @@
       <c r="AD40" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4844,25 +5280,25 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>34.6</v>
+        <v>27.2</v>
       </c>
       <c r="G41" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="H41" t="n">
-        <v>37.4</v>
+        <v>29.9</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
         <v>1</v>
       </c>
-      <c r="K41" t="n">
-        <v>3</v>
-      </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -4877,14 +5313,18 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P41" t="n">
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>28</v>
       </c>
-      <c r="Q41" t="n">
-        <v>53</v>
-      </c>
-      <c r="R41" t="n">
-        <v>26</v>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4892,7 +5332,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -4903,7 +5343,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4912,15 +5352,17 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB41" t="n">
-        <v>35</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -4930,18 +5372,28 @@
       <c r="AD41" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>BOS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4951,36 +5403,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F42" t="n">
-        <v>27.2</v>
+        <v>39.2</v>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="H42" t="n">
-        <v>29.9</v>
+        <v>32.1</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4992,39 +5450,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>43</v>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+        <v>-1.6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8</v>
+      </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -5044,18 +5510,28 @@
       <c r="AD42" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5065,51 +5541,53 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>39.2</v>
+        <v>33.2</v>
       </c>
       <c r="G43" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="H43" t="n">
-        <v>32.1</v>
+        <v>34.1</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O43" t="n">
-        <v>59</v>
-      </c>
-      <c r="P43" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>38</v>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -5122,14 +5600,10 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>8</v>
-      </c>
+        <v>-2.3</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
           <t>@</t>
@@ -5137,7 +5611,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5146,17 +5620,15 @@
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
+        <v>16</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -5166,18 +5638,28 @@
       <c r="AD43" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5187,33 +5669,33 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>33.2</v>
+        <v>30.6</v>
       </c>
       <c r="G44" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="H44" t="n">
-        <v>34.1</v>
+        <v>30.7</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -5235,29 +5717,27 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R44" t="n">
+        <v>49</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5266,36 +5746,44 @@
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>DEN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5305,69 +5793,85 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F45" t="n">
-        <v>30.6</v>
+        <v>37.4</v>
       </c>
       <c r="G45" t="n">
-        <v>32.5</v>
+        <v>31.2</v>
       </c>
       <c r="H45" t="n">
-        <v>30.7</v>
+        <v>35.1</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
-      <c r="L45" t="n">
-        <v>4</v>
-      </c>
       <c r="M45" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>49</v>
-      </c>
-      <c r="O45" t="n">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q45" t="n">
-        <v>28</v>
-      </c>
-      <c r="R45" t="n">
-        <v>10</v>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+        <v>-3.1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>7</v>
+      </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5376,34 +5880,48 @@
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB45" t="n">
-        <v>57</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5413,37 +5931,33 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>37.4</v>
+        <v>27.8</v>
       </c>
       <c r="G46" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="H46" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -5460,43 +5974,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q46" t="n">
-        <v>35</v>
-      </c>
-      <c r="R46" t="n">
-        <v>56</v>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="U46" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="V46" t="n">
-        <v>7</v>
-      </c>
+        <v>-2.2</v>
+      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -5516,18 +6030,28 @@
       <c r="AD46" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5537,86 +6061,78 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="G47" t="n">
-        <v>31.1</v>
+        <v>29.7</v>
       </c>
       <c r="H47" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O47" t="n">
+        <v>30</v>
+      </c>
+      <c r="P47" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>18</v>
+      </c>
+      <c r="R47" t="n">
+        <v>66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -5636,115 +6152,125 @@
       <c r="AD47" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V48" t="n">
+        <v>8</v>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Jonathan Kuminga</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="G48" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="H48" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V48" t="n">
-        <v>13</v>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -5764,18 +6290,28 @@
       <c r="AD48" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>LAL</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5794,25 +6330,25 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24.6</v>
+        <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>28.5</v>
+        <v>26.3</v>
       </c>
       <c r="H49" t="n">
-        <v>32.2</v>
+        <v>27.7</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5844,26 +6380,26 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>-3.1</v>
+        <v>3.9</v>
       </c>
       <c r="U49" t="n">
-        <v>3.7</v>
+        <v>7.6</v>
       </c>
       <c r="V49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5872,7 +6408,7 @@
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
@@ -5892,6 +6428,16 @@
       <c r="AD49" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>SAC</t>
         </is>
       </c>
     </row>
